--- a/doc/excel_output/BackgroundData.xlsx
+++ b/doc/excel_output/BackgroundData.xlsx
@@ -1,132 +1,461 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BackgroundDB_SourceDatasets_ecoinvent.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="BackgroundDB_SourceDatasets_GaBi.csv" sheetId="2" r:id="rId2"/>
+    <sheet name="BackgroundDB_SourceDatasets_ecoinvent" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BackgroundDB_SourceDatasets_GaBi" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"BackgroundDB_SourceDatasets_ecoinvent.csv"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"BackgroundDB_SourceDatasets_GaBi.csv"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
-  </definedNames>
-  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="m/d/yyyy" numFmtId="100"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
-      <color rgb="FF000000"/>
-      <name val="Sans"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="256" style="0" width="9.142307692307693"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ecoinvent Database Version</t>
         </is>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>UUID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -139,9 +468,11 @@
         </is>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -154,9 +485,11 @@
         </is>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2.1000000000000001</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -169,9 +502,11 @@
         </is>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2.2000000000000002</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -184,9 +519,11 @@
         </is>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>3</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -199,9 +536,11 @@
         </is>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>3.1000000000000001</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -214,9 +553,11 @@
         </is>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>3.2000000000000002</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -229,9 +570,11 @@
         </is>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>3.2999999999999998</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -244,9 +587,11 @@
         </is>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>3.3999999999999999</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -259,9 +604,11 @@
         </is>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>3.5</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -274,9 +621,11 @@
         </is>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>3.6000000000000001</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -289,9 +638,11 @@
         </is>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>3.7000000000000002</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -304,9 +655,11 @@
         </is>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>36957</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3.7.1</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -319,9 +672,11 @@
         </is>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>3.7999999999999998</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -334,9 +689,11 @@
         </is>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>3.8999999999999999</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -349,9 +706,11 @@
         </is>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>36959</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3.9.1</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -364,9 +723,11 @@
         </is>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>3.1000000000000001</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -380,21 +741,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -402,27 +757,30 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="256" style="0" width="9.142307692307693"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GaBi Database Version</t>
         </is>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>UUID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -435,7 +793,7 @@
         </is>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>SP20 2013</t>
@@ -452,7 +810,7 @@
         </is>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" t="inlineStr">
         <is>
           <t>SP25 2014</t>
@@ -469,7 +827,7 @@
         </is>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" t="inlineStr">
         <is>
           <t>SP26 2014</t>
@@ -486,7 +844,7 @@
         </is>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="A6" t="inlineStr">
         <is>
           <t>SP27 2015</t>
@@ -503,7 +861,7 @@
         </is>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t>SP28 2015</t>
@@ -520,7 +878,7 @@
         </is>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t>SP29 2016</t>
@@ -537,7 +895,7 @@
         </is>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9">
       <c r="A9" t="inlineStr">
         <is>
           <t>SP30 2016</t>
@@ -554,7 +912,7 @@
         </is>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10">
       <c r="A10" t="inlineStr">
         <is>
           <t>SP33 2017</t>
@@ -571,7 +929,7 @@
         </is>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11">
       <c r="A11" t="inlineStr">
         <is>
           <t>SP34 2017</t>
@@ -588,7 +946,7 @@
         </is>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12">
       <c r="A12" t="inlineStr">
         <is>
           <t>SP35 2018</t>
@@ -605,7 +963,7 @@
         </is>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13">
       <c r="A13" t="inlineStr">
         <is>
           <t>SP36 2018</t>
@@ -622,7 +980,7 @@
         </is>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14">
       <c r="A14" t="inlineStr">
         <is>
           <t>SP37 2019</t>
@@ -639,7 +997,7 @@
         </is>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>SP38 2019</t>
@@ -656,7 +1014,7 @@
         </is>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16">
       <c r="A16" t="inlineStr">
         <is>
           <t>SP39 2019</t>
@@ -673,7 +1031,7 @@
         </is>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17">
       <c r="A17" t="inlineStr">
         <is>
           <t>SP40 2020</t>
@@ -690,7 +1048,7 @@
         </is>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18">
       <c r="A18" t="inlineStr">
         <is>
           <t>Edition 2020, CUP 2020.02</t>
@@ -707,7 +1065,7 @@
         </is>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19">
       <c r="A19" t="inlineStr">
         <is>
           <t>Edition 2021, CUP 2021.01</t>
@@ -724,7 +1082,7 @@
         </is>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20">
       <c r="A20" t="inlineStr">
         <is>
           <t>Edition 2021, CUP 2021.02</t>
@@ -741,7 +1099,7 @@
         </is>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21">
       <c r="A21" t="inlineStr">
         <is>
           <t>Edition 2022, CUP 2022.01</t>
@@ -758,7 +1116,7 @@
         </is>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22">
       <c r="A22" t="inlineStr">
         <is>
           <t>Edition 2022, CUP 2022.02</t>
@@ -775,7 +1133,7 @@
         </is>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23">
       <c r="A23" t="inlineStr">
         <is>
           <t>CUP 2023.01</t>
@@ -792,7 +1150,7 @@
         </is>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24">
       <c r="A24" t="inlineStr">
         <is>
           <t>CUP 2023.02</t>
@@ -810,13 +1168,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/doc/excel_output/BackgroundData.xlsx
+++ b/doc/excel_output/BackgroundData.xlsx
@@ -433,6 +433,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -758,6 +763,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
